--- a/biology/Médecine/Région_de_bien-être_de_Laponie/Région_de_bien-être_de_Laponie.xlsx
+++ b/biology/Médecine/Région_de_bien-être_de_Laponie/Région_de_bien-être_de_Laponie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+          <t>Région_de_bien-être_de_Laponie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être de Laponie (en finnois : Lapin hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours de Laponie[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être de Laponie (en finnois : Lapin hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours de Laponie.
 C'est l'une des 23 régions de bien-être de Finlande.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+          <t>Région_de_bien-être_de_Laponie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Municipalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région compte 21 municipalités, dont 4 villes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région compte 21 municipalités, dont 4 villes.
  Enontekiö
  Inari
  Kemi
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+          <t>Région_de_bien-être_de_Laponie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,14 +578,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Laponie à partir du 1er janvier 2023[5].
-Soins de santé
-Les municipalités font partie du District hospitalier de Laponie. 
-La région est servie par l'hôpital central de Laponie et l'hôpital central de Botnie-Occidentale ainsi que par l'hôpital de Keropudas et l'hôpital de Muurola.
-Opérations de secours
-En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Laponie dépendent du service de secours de Laponie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Laponie à partir du 1er janvier 2023.
 </t>
         </is>
       </c>
@@ -582,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+          <t>Région_de_bien-être_de_Laponie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,10 +608,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités font partie du District hospitalier de Laponie. 
+La région est servie par l'hôpital central de Laponie et l'hôpital central de Botnie-Occidentale ainsi que par l'hôpital de Keropudas et l'hôpital de Muurola.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Laponie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Opérations de secours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Laponie dépendent du service de secours de Laponie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Laponie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Laponie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élections régionales finlandaises de 2022 ont eu lieu le 23 janvier 2022 afin de désigner pour la première fois les 59 conseillers régionaux élus pour 3 ans pour administrer la région de services du bien-être de Laponie.
 La répartition des voix et des sièges est la suivante :
